--- a/Bestand.xlsx
+++ b/Bestand.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -4116,7 +4116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -4124,7 +4124,7 @@
     <numFmt numFmtId="165" formatCode="\I\S\B\N\ #\-###\-#####\-#"/>
     <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4364,8 +4364,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Dezimal" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -4487,7 +4487,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4507,7 +4507,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4541,10 +4541,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId5">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
@@ -4553,7 +4553,7 @@
               </a14:imgProps>
             </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4571,7 +4571,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4582,52 +4582,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2073" name="Object 25" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4670,7 +4624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -4744,7 +4698,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4779,7 +4732,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -4955,17 +4907,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="14" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -4973,13 +4925,13 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4991,7 +4943,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -5071,7 +5023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5109,7 +5061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5147,7 +5099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -5185,7 +5137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -5223,7 +5175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -5261,7 +5213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -5300,7 +5252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -5338,7 +5290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -5376,7 +5328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -5414,7 +5366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -5452,7 +5404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -5490,7 +5442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -5525,7 +5477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -5560,7 +5512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -5599,7 +5551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="31" customFormat="1">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -5651,7 +5603,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="13">
         <v>1</v>
       </c>
@@ -5690,7 +5642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -5729,7 +5681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="13">
         <v>1</v>
       </c>
@@ -5767,35 +5719,35 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="K21" s="26"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="K22" s="26"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="K23" s="26"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="K24" s="26"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="K25" s="26"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="K26" s="26"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="K27" s="26"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -5823,27 +5775,27 @@
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="K29" s="26"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="K30" s="26"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="K31" s="26"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="K32" s="26"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="K33" s="26"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="31" customFormat="1">
       <c r="A34" s="13"/>
       <c r="B34" s="6"/>
       <c r="C34" s="14"/>
@@ -5871,7 +5823,7 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="31" customFormat="1">
       <c r="A35" s="13"/>
       <c r="B35" s="6"/>
       <c r="C35" s="14"/>
@@ -5899,22 +5851,22 @@
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="D36" s="7"/>
       <c r="K36" s="26"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="E37" s="12"/>
       <c r="K37" s="26"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="D38" s="7"/>
       <c r="K38" s="26"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="28"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
@@ -5942,7 +5894,7 @@
       <c r="Y39" s="31"/>
       <c r="Z39" s="31"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="28"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -5970,90 +5922,90 @@
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="K41" s="26"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="K42" s="26"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="K43" s="26"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="K44" s="26"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="K45" s="26"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="K46" s="26"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="K47" s="26"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="E48" s="12"/>
       <c r="F48" s="7"/>
       <c r="K48" s="26"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12">
       <c r="K49" s="26"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12">
       <c r="K50" s="26"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12">
       <c r="D51" s="7"/>
       <c r="K51" s="26"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12">
       <c r="K52" s="26"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:12">
       <c r="D53" s="7"/>
       <c r="K53" s="26"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:12">
       <c r="K54" s="26"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12">
       <c r="D55" s="7"/>
       <c r="E55" s="12"/>
       <c r="F55" s="7"/>
       <c r="K55" s="26"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12">
       <c r="E56" s="12"/>
       <c r="F56" s="7"/>
       <c r="K56" s="26"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12">
       <c r="E57" s="12"/>
       <c r="F57" s="7"/>
       <c r="K57" s="26"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12">
       <c r="K58" s="26"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:12">
       <c r="C59" s="24"/>
       <c r="D59" s="7"/>
       <c r="E59" s="12"/>
@@ -6062,7 +6014,7 @@
       <c r="K59" s="26"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:12">
       <c r="C60" s="24"/>
       <c r="D60" s="7"/>
       <c r="E60" s="12"/>
@@ -6071,7 +6023,7 @@
       <c r="K60" s="26"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12">
       <c r="C61" s="24"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12"/>
@@ -6080,7 +6032,7 @@
       <c r="K61" s="26"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12">
       <c r="C62" s="24"/>
       <c r="D62" s="7"/>
       <c r="E62" s="12"/>
@@ -6089,7 +6041,7 @@
       <c r="K62" s="26"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:12">
       <c r="C63" s="24"/>
       <c r="D63" s="7"/>
       <c r="E63" s="12"/>
@@ -6098,7 +6050,7 @@
       <c r="K63" s="26"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12">
       <c r="C64" s="24"/>
       <c r="D64" s="7"/>
       <c r="E64" s="12"/>
@@ -6107,7 +6059,7 @@
       <c r="K64" s="26"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12">
       <c r="C65" s="24"/>
       <c r="D65" s="7"/>
       <c r="E65" s="12"/>
@@ -6116,7 +6068,7 @@
       <c r="K65" s="26"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12">
       <c r="C66" s="24"/>
       <c r="D66" s="7"/>
       <c r="E66" s="12"/>
@@ -6125,7 +6077,7 @@
       <c r="K66" s="26"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12">
       <c r="C67" s="24"/>
       <c r="D67" s="7"/>
       <c r="E67" s="12"/>
@@ -6134,7 +6086,7 @@
       <c r="K67" s="26"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12">
       <c r="C68" s="24"/>
       <c r="D68" s="7"/>
       <c r="E68" s="12"/>
@@ -6143,7 +6095,7 @@
       <c r="K68" s="26"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12">
       <c r="C69" s="24"/>
       <c r="D69" s="7"/>
       <c r="E69" s="12"/>
@@ -6152,7 +6104,7 @@
       <c r="K69" s="26"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12">
       <c r="C70" s="24"/>
       <c r="D70" s="7"/>
       <c r="E70" s="12"/>
@@ -6161,7 +6113,7 @@
       <c r="K70" s="26"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12">
       <c r="C71" s="24"/>
       <c r="D71" s="7"/>
       <c r="E71" s="12"/>
@@ -6170,7 +6122,7 @@
       <c r="K71" s="26"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:12">
       <c r="C72" s="24"/>
       <c r="D72" s="7"/>
       <c r="E72" s="12"/>
@@ -6179,7 +6131,7 @@
       <c r="K72" s="26"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12">
       <c r="C73" s="24"/>
       <c r="D73" s="7"/>
       <c r="E73" s="12"/>
@@ -6188,7 +6140,7 @@
       <c r="K73" s="26"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12">
       <c r="C74" s="24"/>
       <c r="D74" s="7"/>
       <c r="E74" s="12"/>
@@ -6197,7 +6149,7 @@
       <c r="K74" s="26"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:12">
       <c r="C75" s="24"/>
       <c r="D75" s="7"/>
       <c r="E75" s="12"/>
@@ -6206,7 +6158,7 @@
       <c r="K75" s="26"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12">
       <c r="C76" s="24"/>
       <c r="D76" s="7"/>
       <c r="E76" s="12"/>
@@ -6215,7 +6167,7 @@
       <c r="K76" s="26"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12">
       <c r="C77" s="24"/>
       <c r="D77" s="7"/>
       <c r="E77" s="12"/>
@@ -6224,7 +6176,7 @@
       <c r="K77" s="26"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:12">
       <c r="C78" s="24"/>
       <c r="D78" s="7"/>
       <c r="E78" s="12"/>
@@ -6233,7 +6185,7 @@
       <c r="K78" s="26"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12">
       <c r="C79" s="24"/>
       <c r="D79" s="7"/>
       <c r="E79" s="12"/>
@@ -6242,7 +6194,7 @@
       <c r="K79" s="26"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12">
       <c r="C80" s="24"/>
       <c r="D80" s="7"/>
       <c r="E80" s="12"/>
@@ -6251,7 +6203,7 @@
       <c r="K80" s="26"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="31" customFormat="1">
       <c r="A81" s="28"/>
       <c r="B81" s="29"/>
       <c r="C81" s="36"/>
@@ -6264,7 +6216,7 @@
       <c r="K81" s="34"/>
       <c r="L81" s="35"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="C82" s="24"/>
       <c r="D82" s="7"/>
       <c r="E82" s="12"/>
@@ -6273,7 +6225,7 @@
       <c r="K82" s="26"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="C83" s="24"/>
       <c r="D83" s="7"/>
       <c r="E83" s="12"/>
@@ -6282,7 +6234,7 @@
       <c r="K83" s="26"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="C84" s="24"/>
       <c r="D84" s="7"/>
       <c r="E84" s="12"/>
@@ -6291,166 +6243,166 @@
       <c r="K84" s="26"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="H85" s="25"/>
       <c r="K85" s="26"/>
       <c r="L85" s="9"/>
       <c r="N85" s="26"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="H86" s="25"/>
       <c r="K86" s="26"/>
       <c r="L86" s="9"/>
       <c r="N86" s="26"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="H87" s="25"/>
       <c r="K87" s="26"/>
       <c r="L87" s="9"/>
       <c r="N87" s="26"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="H88" s="25"/>
       <c r="K88" s="26"/>
       <c r="L88" s="9"/>
       <c r="N88" s="26"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="K89" s="26"/>
       <c r="L89" s="9"/>
       <c r="N89" s="26"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="K90" s="26"/>
       <c r="L90" s="9"/>
       <c r="N90" s="26"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="K91" s="26"/>
       <c r="L91" s="9"/>
       <c r="N91" s="26"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="K92" s="26"/>
       <c r="L92" s="9"/>
       <c r="N92" s="26"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="C93" s="27"/>
       <c r="K93" s="26"/>
       <c r="L93" s="9"/>
       <c r="N93" s="26"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="K94" s="26"/>
       <c r="L94" s="9"/>
       <c r="N94" s="26"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="L95" s="9"/>
       <c r="N95" s="26"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="L96" s="9"/>
       <c r="N96" s="26"/>
     </row>
-    <row r="97" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:14">
       <c r="H97" s="25"/>
       <c r="L97" s="9"/>
       <c r="N97" s="26"/>
     </row>
-    <row r="98" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:14">
       <c r="L98" s="9"/>
       <c r="N98" s="26"/>
     </row>
-    <row r="99" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:14">
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:14">
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:14">
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:14">
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:14">
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:14">
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:14">
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:14">
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:14">
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:14">
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:14">
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:14">
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:14">
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:14">
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:12">
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:12">
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:12">
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="7:12" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25"/>
-    <row r="1048574" spans="7:7" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="7:12"/>
+    <row r="117" spans="7:12"/>
+    <row r="118" spans="7:12"/>
+    <row r="119" spans="7:12"/>
+    <row r="120" spans="7:12"/>
+    <row r="121" spans="7:12"/>
+    <row r="122" spans="7:12"/>
+    <row r="123" spans="7:12"/>
+    <row r="124" spans="7:12"/>
+    <row r="125" spans="7:12"/>
+    <row r="126" spans="7:12"/>
+    <row r="127" spans="7:12"/>
+    <row r="128" spans="7:12"/>
+    <row r="129" spans="7:7"/>
+    <row r="130" spans="7:7"/>
+    <row r="131" spans="7:7"/>
+    <row r="132" spans="7:7"/>
+    <row r="133" spans="7:7"/>
+    <row r="134" spans="7:7"/>
+    <row r="135" spans="7:7"/>
+    <row r="136" spans="7:7"/>
+    <row r="137" spans="7:7"/>
+    <row r="138" spans="7:7"/>
+    <row r="139" spans="7:7"/>
+    <row r="140" spans="7:7"/>
+    <row r="141" spans="7:7"/>
+    <row r="142" spans="7:7"/>
+    <row r="143" spans="7:7"/>
+    <row r="144" spans="7:7"/>
+    <row r="145" spans="7:7"/>
+    <row r="146" spans="7:7"/>
+    <row r="147" spans="7:7"/>
+    <row r="148" spans="7:7"/>
+    <row r="149" spans="7:7"/>
+    <row r="150" spans="7:7"/>
+    <row r="151" spans="7:7"/>
+    <row r="1048574" spans="7:7"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1"/>
@@ -6480,8 +6432,8 @@
   <tableParts count="1">
     <tablePart r:id="rId23"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="22" id="{8E278327-64C2-4676-9E9A-20421380A245}">
@@ -6737,56 +6689,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2073" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2073" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Word.Document.12" shapeId="2073" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
